--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>商品类型(后端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,20 +594,20 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -614,7 +618,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -625,7 +629,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -648,20 +652,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43492</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>43493</v>
       </c>
@@ -674,7 +680,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43494</v>
       </c>
@@ -687,7 +693,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>43495</v>
       </c>
@@ -700,7 +706,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>43496</v>
       </c>
@@ -713,7 +719,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>43497</v>
       </c>
@@ -726,7 +732,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>43498</v>
       </c>
@@ -739,7 +745,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>43499</v>
       </c>
@@ -752,7 +758,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>43500</v>
       </c>
@@ -765,7 +771,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>43501</v>
       </c>
@@ -778,7 +784,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>43502</v>
       </c>
@@ -791,7 +797,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>43503</v>
       </c>
@@ -804,7 +810,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>43504</v>
       </c>
@@ -817,7 +823,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>43505</v>
       </c>
@@ -830,7 +836,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>43506</v>
       </c>
@@ -843,7 +849,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>43507</v>
       </c>
@@ -856,7 +862,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>43508</v>
       </c>
@@ -869,15 +875,15 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="12" t="s">
         <v>9</v>
       </c>
@@ -887,7 +893,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
@@ -897,7 +903,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="12" t="s">
         <v>12</v>
       </c>
@@ -907,7 +913,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
@@ -937,7 +943,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,7 +956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,70 +74,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品列表（后端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表(后端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆注册(前端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城商品类型(渲染接口，商品数据渲染接口)(前端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车（前端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单(前端-收获地址的增加删除，订单核对，订单查询)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品评论和回复(前端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品收藏(前端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表(后端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心(个人信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心(收获地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复BUG和完成未完成的模块</t>
+  </si>
+  <si>
+    <t>修复BUG和完成未完成的模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型(后端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商品发布(后端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品列表（后端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表(后端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登陆注册(前端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城商品类型(渲染接口，商品数据渲染接口)(前端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车（前端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单(前端-收获地址的增加删除，订单核对，订单查询)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品评论和回复(前端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过年…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品收藏(前端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单列表(后端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户中心(个人信息)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户中心(收获地址)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复BUG和完成未完成的模块</t>
-  </si>
-  <si>
-    <t>修复BUG和完成未完成的模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型(后端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +598,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,10 +661,10 @@
         <v>43492</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -672,9 +676,11 @@
         <v>43493</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -685,7 +691,7 @@
         <v>43494</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -698,7 +704,7 @@
         <v>43495</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -711,7 +717,7 @@
         <v>43496</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -724,7 +730,7 @@
         <v>43497</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -737,7 +743,7 @@
         <v>43498</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -750,7 +756,7 @@
         <v>43499</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -763,7 +769,7 @@
         <v>43500</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -776,7 +782,7 @@
         <v>43501</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -789,7 +795,7 @@
         <v>43502</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -802,7 +808,7 @@
         <v>43503</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -815,7 +821,7 @@
         <v>43504</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -828,7 +834,7 @@
         <v>43505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -841,7 +847,7 @@
         <v>43506</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -854,7 +860,7 @@
         <v>43507</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -867,7 +873,7 @@
         <v>43508</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>商品发布(后端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和后端页面一起写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +610,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,9 +705,15 @@
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>和后端页面一起写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +614,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,7 +728,9 @@
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>和后端页面一起写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,7 +622,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,7 +751,9 @@
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -756,7 +766,9 @@
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>和后端页面一起写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,7 +626,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,7 +785,9 @@
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,7 +634,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,8 +808,12 @@
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>订单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,7 +638,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,7 +829,9 @@
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -851,7 +857,9 @@
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -864,7 +872,9 @@
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -877,7 +887,9 @@
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -890,7 +902,9 @@
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
